--- a/03.crawler/01.RockAuto/file/2.part/crawler_1.xlsx
+++ b/03.crawler/01.RockAuto/file/2.part/crawler_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Manufacturer</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>OEM</t>
@@ -486,40 +486,35 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Json_Note 1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Json_Note 2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Choose</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Json_Price</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Note 1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Note 2</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Group</t>
+          <t>Type Code</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Type Code</t>
+          <t>Part Code</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Part Code</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>JOIN_MPNTCPC</t>
         </is>
@@ -531,20 +526,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>30250S</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
@@ -554,7 +553,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/3-0250S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "2": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg", "3": "https://www.rockauto.com/info/583/715F-1-ANG.jpg", "4": "https://www.rockauto.com/info/583/S906A-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "6": "https://www.rockauto.com/info/583/717F-1-ANG.jpg", "7": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "8": "https://www.rockauto.com/info/583/S899-1-ANG.jpg", "9": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "10": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/583/3-0250S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "2": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg", "3": "https://www.rockauto.com/info/583/715F-1-ANG.jpg", "4": "https://www.rockauto.com/info/583/S906A-1-FRO.jpg", "5": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "6": "https://www.rockauto.com/info/583/717F-1-ANG.jpg", "7": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "8": "https://www.rockauto.com/info/583/S899-1-FRO.jpg", "9": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "10": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg"}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -562,38 +561,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304960&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>{"0": "$171.79"}</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304960</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
-        <is>
-          <t>8304960</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
         <is>
           <t>MELLING;30250S;5756;8304960</t>
         </is>
@@ -605,20 +599,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>30250SX</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -636,38 +634,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=11158045&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{"0": "Does Not Include Sprockets"}</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"0": "$134.89"}</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"0": "Does Not Include Sprockets"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
+          <t>{"0": "$135.79"}</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>11158045</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
-        <is>
-          <t>11158045</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
         <is>
           <t>MELLING;30250SX;5756;11158045</t>
         </is>
@@ -679,20 +672,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>30420S</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -710,38 +707,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304968&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"0": "$138.89"}</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
+          <t>{"0": "$139.79"}</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304968</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
-        <is>
-          <t>8304968</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
         <is>
           <t>MELLING;30420S;5756;8304968</t>
         </is>
@@ -753,20 +745,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>30430S</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -784,38 +780,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304972&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>{"0": "$188.79"}</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304972</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
-        <is>
-          <t>8304972</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
         <is>
           <t>MELLING;30430S;5756;8304972</t>
         </is>
@@ -827,20 +818,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>30460S</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -858,38 +853,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304976&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{"0": "Does Not Include Sprockets"}</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>{"0": "$223.79"}</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>{"0": "Does Not Include Sprockets"}</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304976</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
-        <is>
-          <t>8304976</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
         <is>
           <t>MELLING;30460S;5756;8304976</t>
         </is>
@@ -901,20 +891,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>30460SA</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -932,38 +926,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=9658980&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>{"0": "$301.79"}</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>9658980</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
-        <is>
-          <t>9658980</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
         <is>
           <t>MELLING;30460SA;5756;9658980</t>
         </is>
@@ -975,20 +964,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>30460SB</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -1006,38 +999,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=9658984&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>{"0": "$272.79"}</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>9658984</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
-        <is>
-          <t>9658984</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
         <is>
           <t>MELLING;30460SB;5756;9658984</t>
         </is>
@@ -1049,20 +1037,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>30470S</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>TS13174</t>
@@ -1076,7 +1068,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/3-0470S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "2": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "3": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "4": "https://www.rockauto.com/info/583/470-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "6": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "7": "https://www.rockauto.com/info/583/S960-1-TOP.jpg", "8": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "9": "https://www.rockauto.com/info/583/471-1-ANG.jpg", "10": "https://www.rockauto.com/info/583/S959-1-TOP.jpg", "11": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/583/3-0470S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "2": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "3": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "4": "https://www.rockauto.com/info/583/470-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "6": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "7": "https://www.rockauto.com/info/583/S960-1-FRO.jpg", "8": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "9": "https://www.rockauto.com/info/583/471-1-ANG.jpg", "10": "https://www.rockauto.com/info/583/S959-1-FRO.jpg", "11": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg"}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1084,38 +1076,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304980&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>{"0": "$281.79"}</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304980</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
-        <is>
-          <t>8304980</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
         <is>
           <t>MELLING;30470S;5756;8304980</t>
         </is>
@@ -1127,20 +1114,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>30470SX</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -1158,38 +1149,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=10110000&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{"0": "Does Not Include Sprockets"}</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>{"0": "$202.79"}</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>{"0": "Does Not Include Sprockets"}</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>10110000</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
-        <is>
-          <t>10110000</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
         <is>
           <t>MELLING;30470SX;5756;10110000</t>
         </is>
@@ -1201,20 +1187,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>30490S</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>TS11170</t>
@@ -1236,38 +1226,33 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304984&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>{"0": "$249.79"}</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304984</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
-        <is>
-          <t>8304984</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
         <is>
           <t>MELLING;30490S;5756;8304984</t>
         </is>
